--- a/data/trans_dic/P33B_R5-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P33B_R5-Habitat-trans_dic.xlsx
@@ -567,7 +567,7 @@
         <v>0.06638667206108671</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.1394787294103144</v>
+        <v>0.1394787294103143</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.104039964968379</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.05159843211682601</v>
+        <v>0.04899394247148874</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1222331628074288</v>
+        <v>0.1212556252724545</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.09144943860120745</v>
+        <v>0.09142118984202156</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.08800523187412258</v>
+        <v>0.08633833724444513</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.159306444666793</v>
+        <v>0.1595706116591217</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1175587752304393</v>
+        <v>0.119409533955653</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.04539652540736665</v>
+        <v>0.04499868089124492</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1114634507574665</v>
+        <v>0.1111054663111047</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.08141216694094638</v>
+        <v>0.08189719589883541</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.07471842161877039</v>
+        <v>0.07499152634504991</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1429670937613677</v>
+        <v>0.1428477283203237</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1039224903146849</v>
+        <v>0.1031261560855867</v>
       </c>
     </row>
     <row r="10">
@@ -680,7 +680,7 @@
         <v>0.113902470211044</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.08668009910759467</v>
+        <v>0.08668009910759468</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.04517980816737566</v>
+        <v>0.04344227403691055</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.09611291450636975</v>
+        <v>0.09594176704565283</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.07255350380947456</v>
+        <v>0.07289836396050967</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.07814566358198141</v>
+        <v>0.07731911198955831</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1365822061761433</v>
+        <v>0.136129283847997</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1007078704777637</v>
+        <v>0.0997593988150007</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.06815681834541799</v>
+        <v>0.06883987926394947</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1134556814171178</v>
+        <v>0.1134088206181151</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.0959415511932091</v>
+        <v>0.0962264489540355</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1028880493442596</v>
+        <v>0.1020720265131722</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1468104786306248</v>
+        <v>0.1463649546211795</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1208432139722917</v>
+        <v>0.1205752560396471</v>
       </c>
     </row>
     <row r="16">
@@ -784,13 +784,13 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.06728886791613733</v>
+        <v>0.06728886791613735</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>0.1270432282657868</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.0979976729734347</v>
+        <v>0.09799767297343469</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.059364567372551</v>
+        <v>0.05932125314776258</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1179660631391724</v>
+        <v>0.1181773772745416</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.0917854513726757</v>
+        <v>0.09227477570672978</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.07670424878315606</v>
+        <v>0.07595926641736855</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1361308690695757</v>
+        <v>0.136338579129646</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1041034884735832</v>
+        <v>0.1047102960569844</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>35584</v>
+        <v>33788</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>89563</v>
+        <v>88847</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>130073</v>
+        <v>130033</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>60691</v>
+        <v>59541</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>116727</v>
+        <v>116921</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>167210</v>
+        <v>169842</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>47617</v>
+        <v>47200</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>119359</v>
+        <v>118976</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>172574</v>
+        <v>173602</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>78373</v>
+        <v>78660</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>153095</v>
+        <v>152967</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>220290</v>
+        <v>218602</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>36238</v>
+        <v>34844</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>77947</v>
+        <v>77808</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>117035</v>
+        <v>117591</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>62680</v>
+        <v>62017</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>110767</v>
+        <v>110400</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>162450</v>
+        <v>160920</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>67479</v>
+        <v>68156</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>126880</v>
+        <v>126827</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>202281</v>
+        <v>202882</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>101866</v>
+        <v>101058</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>164181</v>
+        <v>163683</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>254784</v>
+        <v>254219</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>209598</v>
+        <v>209445</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>440352</v>
+        <v>441141</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>666690</v>
+        <v>670244</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>270819</v>
+        <v>268189</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>508159</v>
+        <v>508935</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>756162</v>
+        <v>760570</v>
       </c>
     </row>
     <row r="24">
